--- a/spliced/falling/2023-03-25_18-04-18/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-18/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>-0.0968221426010131</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.6240615844726562</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.550089359283447</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-3.513399362564087</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0076358155347406</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.2938261926174164</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.2556470930576324</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-04-18/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-18/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.75560998916626</v>
+        <v>-4.1851313829422</v>
       </c>
       <c r="D2" t="n">
-        <v>3.84902286529541</v>
+        <v>4.315697193145752</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6511768102645874</v>
+        <v>-1.521726083755494</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0073303831741213</v>
+        <v>0.0226020142436027</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0361937656998634</v>
+        <v>0.0108428578823804</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0346666015684604</v>
+        <v>0.0673478916287422</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.870891666412356</v>
+        <v>-4.044641017913818</v>
       </c>
       <c r="D3" t="n">
-        <v>3.396544885635375</v>
+        <v>4.278119564056396</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1143038809299458</v>
+        <v>-1.635269999504089</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00335975876078</v>
+        <v>-0.06688974797725671</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1609629988670349</v>
+        <v>0.0363464802503585</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08643743395805351</v>
+        <v>0.0458148941397666</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.700507307052611</v>
+        <v>-4.037833023071289</v>
       </c>
       <c r="D4" t="n">
-        <v>4.103157997131351</v>
+        <v>4.246780538558959</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4222948729991927</v>
+        <v>-1.5330271422863</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08429940044879911</v>
+        <v>-0.0578794814646244</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1406517177820205</v>
+        <v>-0.0059559359215199</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2235766798257827</v>
+        <v>-0.026419922709465</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.943684387207032</v>
+        <v>-4.188077163696289</v>
       </c>
       <c r="D5" t="n">
-        <v>4.186895227432251</v>
+        <v>4.206779670715332</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9878155738115346</v>
+        <v>-1.555011582374573</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4598288238048553</v>
+        <v>-0.0319177098572254</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2849686443805694</v>
+        <v>0.0326812900602817</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0438295826315879</v>
+        <v>0.0067195175215601</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-5.002620124816895</v>
+        <v>-4.266698265075684</v>
       </c>
       <c r="D6" t="n">
-        <v>2.714760780334467</v>
+        <v>4.172728943824768</v>
       </c>
       <c r="E6" t="n">
-        <v>1.064968466758727</v>
+        <v>-1.657637816667557</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0018325957935303</v>
+        <v>-0.0120645882561802</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4227187633514404</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1143845170736312</v>
+        <v>0.0010690141934901</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-5.456374883651734</v>
+        <v>-4.307723093032837</v>
       </c>
       <c r="D7" t="n">
-        <v>2.089365065097808</v>
+        <v>4.115167903900146</v>
       </c>
       <c r="E7" t="n">
-        <v>1.750832557678223</v>
+        <v>-1.525768172740936</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0514653958380222</v>
+        <v>0.00534507073462</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7043276429176331</v>
+        <v>-0.0042760567739605</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5734497308731079</v>
+        <v>0.0001527163112768</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.036787080764768</v>
+        <v>-4.275023818016052</v>
       </c>
       <c r="D8" t="n">
-        <v>1.541897773742674</v>
+        <v>4.170393228530884</v>
       </c>
       <c r="E8" t="n">
-        <v>1.896076297760009</v>
+        <v>-1.397946566343308</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2469422817230224</v>
+        <v>0.0019853119738399</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.195616006851196</v>
+        <v>-0.0022907445672899</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.284649610519409</v>
+        <v>0.0009162978967650999</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.012954092025758</v>
+        <v>-4.101493644714355</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4318521261215144</v>
+        <v>4.221428394317627</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7947881996631543</v>
+        <v>-1.457295727729798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1327104717493057</v>
+        <v>0.009010262787342</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.82404363155365</v>
+        <v>-0.0284052342176437</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.386511445045471</v>
+        <v>-0.0154243474826216</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.129836273193367</v>
+        <v>-4.052593421936035</v>
       </c>
       <c r="D10" t="n">
-        <v>1.83154973983766</v>
+        <v>4.150938177108764</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.60779109001161</v>
+        <v>-1.483953177928925</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.465160250663757</v>
+        <v>0.027030786499381</v>
       </c>
       <c r="G10" t="n">
-        <v>4.381736278533936</v>
+        <v>0.0221438650041818</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.054465293884277</v>
+        <v>-0.0340557359158992</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.299563241004924</v>
+        <v>-4.146867895126342</v>
       </c>
       <c r="D11" t="n">
-        <v>7.852099323272741</v>
+        <v>4.078793859481812</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.872165632247949</v>
+        <v>-1.569497275352478</v>
       </c>
       <c r="F11" t="n">
-        <v>2.828611612319946</v>
+        <v>0.1010981947183609</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6840163469314575</v>
+        <v>-0.0036651915870606</v>
       </c>
       <c r="H11" t="n">
-        <v>1.775785326957703</v>
+        <v>-0.0352774672210216</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3.646280765533453</v>
+        <v>-4.033952045440674</v>
       </c>
       <c r="D12" t="n">
-        <v>12.82203674316406</v>
+        <v>4.105497026443481</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.478024601936328</v>
+        <v>-1.389435482025145</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8000807762145996</v>
+        <v>-0.0256563406437635</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6334672570228577</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.410640597343445</v>
+        <v>-0.0114537235349416</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.318737292289721</v>
+        <v>-3.75560998916626</v>
       </c>
       <c r="D13" t="n">
-        <v>6.985545444488493</v>
+        <v>3.84902286529541</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.094196039438245</v>
+        <v>-0.6511768102645874</v>
       </c>
       <c r="F13" t="n">
-        <v>0.380110889673233</v>
+        <v>-0.0073303831741213</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3691153228282928</v>
+        <v>-0.0361937656998634</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4048509299755096</v>
+        <v>-0.0346666015684604</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.412541198730471</v>
+        <v>-4.870891666412356</v>
       </c>
       <c r="D14" t="n">
-        <v>1.629453468322767</v>
+        <v>3.396544885635375</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.321827816963195</v>
+        <v>-0.1143038809299458</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2186897546052932</v>
+        <v>-0.00335975876078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1003346145153045</v>
+        <v>-0.1609629988670349</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2921462953090668</v>
+        <v>0.08643743395805351</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.654833269119258</v>
+        <v>-4.700507307052611</v>
       </c>
       <c r="D15" t="n">
-        <v>6.014033746719358</v>
+        <v>4.103157997131351</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.261167562007916</v>
+        <v>-0.4222948729991927</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1091921627521514</v>
+        <v>0.08429940044879911</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4050036668777466</v>
+        <v>0.1406517177820205</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2264782935380935</v>
+        <v>-0.2235766798257827</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.3583765506744629</v>
+        <v>-4.943684387207032</v>
       </c>
       <c r="D16" t="n">
-        <v>5.71919040679932</v>
+        <v>4.186895227432251</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.682787048816667</v>
+        <v>0.9878155738115346</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4273002445697784</v>
+        <v>0.4598288238048553</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8710938692092896</v>
+        <v>0.2849686443805694</v>
       </c>
       <c r="H16" t="n">
-        <v>0.479834645986557</v>
+        <v>-0.0438295826315879</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.107488989830001</v>
+        <v>-5.002620124816895</v>
       </c>
       <c r="D17" t="n">
-        <v>6.458877801895146</v>
+        <v>2.714760780334467</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.10113409161568</v>
+        <v>1.064968466758727</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0183259565383195</v>
+        <v>-0.0018325957935303</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1708895564079284</v>
+        <v>0.4227187633514404</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3941608071327209</v>
+        <v>-0.1143845170736312</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.009711074829105</v>
+        <v>-5.456374883651734</v>
       </c>
       <c r="D18" t="n">
-        <v>7.251273727416988</v>
+        <v>2.089365065097808</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.904031562805179</v>
+        <v>1.750832557678223</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4156937897205353</v>
+        <v>0.0514653958380222</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4030183553695678</v>
+        <v>0.7043276429176331</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1386664062738418</v>
+        <v>-0.5734497308731079</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.518718385696409</v>
+        <v>-5.036787080764768</v>
       </c>
       <c r="D19" t="n">
-        <v>6.290945339202878</v>
+        <v>1.541897773742674</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.275830793380734</v>
+        <v>1.896076297760009</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2107485085725784</v>
+        <v>0.2469422817230224</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.07910704612731929</v>
+        <v>-1.195616006851196</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06582073122262951</v>
+        <v>-1.284649610519409</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.816467857360826</v>
+        <v>-5.012954092025758</v>
       </c>
       <c r="D20" t="n">
-        <v>5.365327644348143</v>
+        <v>0.4318521261215144</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.097930765151977</v>
+        <v>0.7947881996631543</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2503020465373993</v>
+        <v>0.1327104717493057</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09987647086381909</v>
+        <v>-1.82404363155365</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2165517359972</v>
+        <v>-1.386511445045471</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.8067591190338123</v>
+        <v>-6.129836273193367</v>
       </c>
       <c r="D21" t="n">
-        <v>5.145324730873104</v>
+        <v>1.83154973983766</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.1325485110283</v>
+        <v>-1.60779109001161</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1038470938801765</v>
+        <v>-1.465160250663757</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0503963828086853</v>
+        <v>4.381736278533936</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0968221426010131</v>
+        <v>-4.054465293884277</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.299563241004924</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.852099323272741</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-5.872165632247949</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.828611612319946</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6840163469314575</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.775785326957703</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.646280765533453</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.82203674316406</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-5.478024601936328</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.8000807762145996</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6334672570228577</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.410640597343445</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.318737292289721</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.985545444488493</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.094196039438245</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.380110889673233</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3691153228282928</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4048509299755096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.412541198730471</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.629453468322767</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.321827816963195</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.2186897546052932</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1003346145153045</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.2921462953090668</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.654833269119258</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.014033746719358</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.261167562007916</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1091921627521514</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.4050036668777466</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2264782935380935</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.3583765506744629</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.71919040679932</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-3.682787048816667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.4273002445697784</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8710938692092896</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.479834645986557</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.107488989830001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.458877801895146</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-2.10113409161568</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0183259565383195</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1708895564079284</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.3941608071327209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2.009711074829105</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.251273727416988</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.904031562805179</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.4156937897205353</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.4030183553695678</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.1386664062738418</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2.518718385696409</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.290945339202878</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-3.275830793380734</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.2107485085725784</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.07910704612731929</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.06582073122262951</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.816467857360826</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.365327644348143</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.097930765151977</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.2503020465373993</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.09987647086381909</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.2165517359972</v>
       </c>
     </row>
   </sheetData>
